--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>541941.8047327962</v>
+        <v>557900.2201611549</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>285345.3193561958</v>
+        <v>285345.3193561946</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8711409.276874276</v>
+        <v>8711409.276874278</v>
       </c>
     </row>
     <row r="11">
@@ -665,22 +665,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2420339516666</v>
+        <v>24.95442131525745</v>
       </c>
       <c r="F2" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="G2" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="I2" t="n">
-        <v>5.075623164876166</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.1907825699907</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>66.35159003829949</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.6923398882896</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.0844620270375</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K4" t="n">
-        <v>5.63259860476419</v>
+        <v>17.44799951871606</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>51.96190712986807</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.80598074015786</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="D5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>231.8635835046283</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>65.6400807136751</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.0844620270375</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>184.4597779743662</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>69.40990664858413</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>386.2507846880019</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>30.69678734846315</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554016</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>94.63926978364022</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>173.6677896396945</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.3148082618163</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>104.5113366705988</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250885</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.3236091729816</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>296.3879993720429</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>376.184863643924</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1698,7 +1698,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>48.4326051737889</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>358.7034310077528</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>196.7218456862864</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>9.461970681989468</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>81.1220065286378</v>
+        <v>88.95876984552244</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>11.6788446020113</v>
       </c>
       <c r="G22" t="n">
-        <v>50.05665370612867</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,22 +2321,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>165.1524189989511</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>32.75848811338719</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>43.99240337009288</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2555,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>275.4805812731082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>179.9263842746377</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>72.65793777463465</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2755,22 +2755,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>9.461970681989463</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>203.1405253894145</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>141.7004344882554</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7806877295493</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.91401559658162</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,19 +3029,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.1944522398485</v>
+        <v>118.9621335895193</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>42.78146944239196</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3326,13 +3326,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>183.446376321553</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>15.5789792216366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>302.560024121573</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -3557,19 +3557,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>3.250973657561992</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>164.162092778057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>166.3108151422853</v>
       </c>
       <c r="D41" t="n">
-        <v>61.26173891949077</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,25 +3785,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3876,7 +3876,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>55.90301252244944</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>300.7782944824659</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>129.1545046242535</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.31785343913997</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>828.0278728906062</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="C2" t="n">
-        <v>828.0278728906062</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="D2" t="n">
-        <v>828.0278728906062</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="E2" t="n">
-        <v>562.1268284949833</v>
+        <v>1027.761649629641</v>
       </c>
       <c r="F2" t="n">
-        <v>296.2257840993605</v>
+        <v>761.8606052340175</v>
       </c>
       <c r="G2" t="n">
-        <v>30.32473970373769</v>
+        <v>495.9595608383941</v>
       </c>
       <c r="H2" t="n">
-        <v>30.32473970373769</v>
+        <v>230.0585164427706</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800419</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573685</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142361</v>
+        <v>330.2546714142367</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098024</v>
+        <v>563.3128681098033</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369329</v>
+        <v>785.5101925369341</v>
       </c>
       <c r="O2" t="n">
-        <v>950.137187388514</v>
+        <v>950.1371873885156</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806667</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="T2" t="n">
-        <v>828.0278728906062</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="U2" t="n">
-        <v>828.0278728906062</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="V2" t="n">
-        <v>828.0278728906062</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="W2" t="n">
-        <v>828.0278728906062</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="X2" t="n">
-        <v>828.0278728906062</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Y2" t="n">
-        <v>828.0278728906062</v>
+        <v>1052.968135806669</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.05936271613333</v>
+        <v>289.5455280735829</v>
       </c>
       <c r="C3" t="n">
-        <v>21.05936271613333</v>
+        <v>289.5455280735829</v>
       </c>
       <c r="D3" t="n">
-        <v>21.05936271613333</v>
+        <v>289.5455280735829</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613333</v>
+        <v>289.5455280735829</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>289.5455280735829</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683224</v>
       </c>
       <c r="K3" t="n">
-        <v>154.3302328992135</v>
+        <v>24.95018035683224</v>
       </c>
       <c r="L3" t="n">
-        <v>394.933760794076</v>
+        <v>265.553708251695</v>
       </c>
       <c r="M3" t="n">
-        <v>655.5433744062259</v>
+        <v>526.1633218638455</v>
       </c>
       <c r="N3" t="n">
-        <v>916.1529880183758</v>
+        <v>600.5536970360777</v>
       </c>
       <c r="O3" t="n">
-        <v>977.3180709271187</v>
+        <v>860.9667611285699</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.903022648045</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.903022648045</v>
       </c>
       <c r="T3" t="n">
-        <v>850.9830782217423</v>
+        <v>752.9179650631208</v>
       </c>
       <c r="U3" t="n">
-        <v>622.7627494639471</v>
+        <v>524.6976363053257</v>
       </c>
       <c r="V3" t="n">
-        <v>387.6106412322044</v>
+        <v>289.5455280735829</v>
       </c>
       <c r="W3" t="n">
-        <v>133.3732845040028</v>
+        <v>289.5455280735829</v>
       </c>
       <c r="X3" t="n">
-        <v>133.3732845040028</v>
+        <v>289.5455280735829</v>
       </c>
       <c r="Y3" t="n">
-        <v>133.3732845040028</v>
+        <v>289.5455280735829</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="G4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="H4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="I4" t="n">
-        <v>26.74885625629918</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="J4" t="n">
-        <v>26.74885625629918</v>
+        <v>38.68360465423041</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360296</v>
+        <v>54.48163939360313</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955242</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>150.0877739486502</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716489</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706535</v>
+        <v>130.0221525919995</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>818.7624959030029</v>
+        <v>286.9604071117568</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8614515073797</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D5" t="n">
-        <v>286.9604071117565</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E5" t="n">
-        <v>286.9604071117565</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573685</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142367</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098028</v>
+        <v>563.3128681098033</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369336</v>
+        <v>785.5101925369341</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885148</v>
+        <v>950.1371873885156</v>
       </c>
       <c r="P5" t="n">
         <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="T5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="U5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="V5" t="n">
-        <v>907.4554057415462</v>
+        <v>818.7624959030037</v>
       </c>
       <c r="W5" t="n">
-        <v>907.4554057415462</v>
+        <v>552.8614515073803</v>
       </c>
       <c r="X5" t="n">
-        <v>907.4554057415462</v>
+        <v>286.9604071117568</v>
       </c>
       <c r="Y5" t="n">
-        <v>907.4554057415462</v>
+        <v>286.9604071117568</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195.5123919972604</v>
+        <v>372.577857450229</v>
       </c>
       <c r="C6" t="n">
-        <v>21.05936271613335</v>
+        <v>372.577857450229</v>
       </c>
       <c r="D6" t="n">
-        <v>21.05936271613335</v>
+        <v>372.577857450229</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613335</v>
+        <v>372.577857450229</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613335</v>
+        <v>226.0432994771139</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613335</v>
+        <v>87.36247454812843</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J6" t="n">
-        <v>24.95018035683216</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K6" t="n">
-        <v>24.95018035683216</v>
+        <v>154.3302328992137</v>
       </c>
       <c r="L6" t="n">
-        <v>265.5537082516947</v>
+        <v>394.9337607940764</v>
       </c>
       <c r="M6" t="n">
-        <v>526.1633218638449</v>
+        <v>524.9036321565297</v>
       </c>
       <c r="N6" t="n">
-        <v>786.7729354759952</v>
+        <v>524.9036321565297</v>
       </c>
       <c r="O6" t="n">
-        <v>860.9667611285688</v>
+        <v>785.316696249022</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806668</v>
+        <v>977.3180709271207</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806668</v>
+        <v>954.903022648045</v>
       </c>
       <c r="S6" t="n">
-        <v>1052.968135806668</v>
+        <v>782.4144152406859</v>
       </c>
       <c r="T6" t="n">
-        <v>866.6451277517522</v>
+        <v>580.4293576557618</v>
       </c>
       <c r="U6" t="n">
-        <v>638.424798993957</v>
+        <v>580.4293576557618</v>
       </c>
       <c r="V6" t="n">
-        <v>403.2726907622143</v>
+        <v>580.4293576557618</v>
       </c>
       <c r="W6" t="n">
-        <v>403.2726907622143</v>
+        <v>580.4293576557618</v>
       </c>
       <c r="X6" t="n">
-        <v>403.2726907622143</v>
+        <v>372.577857450229</v>
       </c>
       <c r="Y6" t="n">
-        <v>195.5123919972604</v>
+        <v>372.577857450229</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="C7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="D7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="E7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="F7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="G7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613335</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360313</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955242</v>
       </c>
       <c r="N7" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486502</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716489</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="V7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="W7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="X7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706541</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1498.518225097182</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="C8" t="n">
-        <v>1129.555708156771</v>
+        <v>1567.184413686502</v>
       </c>
       <c r="D8" t="n">
-        <v>771.2900095500202</v>
+        <v>1208.918715079752</v>
       </c>
       <c r="E8" t="n">
-        <v>771.2900095500202</v>
+        <v>823.1304624815077</v>
       </c>
       <c r="F8" t="n">
-        <v>771.2900095500202</v>
+        <v>412.1445576919002</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>412.1445576919002</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>84.949837727903</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628376</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628376</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W8" t="n">
-        <v>1871.983983358262</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="X8" t="n">
-        <v>1498.518225097182</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="Y8" t="n">
-        <v>1498.518225097182</v>
+        <v>1936.146930626914</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.5382038240414</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="U10" t="n">
-        <v>438.955373861002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="V10" t="n">
-        <v>438.955373861002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240414</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240414</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.5382038240414</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>439.7312344186087</v>
+        <v>159.5099885583431</v>
       </c>
       <c r="C11" t="n">
-        <v>439.7312344186087</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D11" t="n">
-        <v>439.7312344186087</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533142</v>
@@ -5048,43 +5048,43 @@
         <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N11" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P11" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859355</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982752</v>
+        <v>936.2491605982766</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.1098286224635</v>
+        <v>546.1098286224649</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673431</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>196.6941021971136</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064343</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T13" t="n">
-        <v>597.8010803716834</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U13" t="n">
-        <v>308.6274700262513</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>422.9054987607762</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D14" t="n">
-        <v>819.715945170047</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E14" t="n">
-        <v>433.9276925718028</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
@@ -5288,40 +5288,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.6610618153</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545186</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>722.2873163082943</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5352,7 +5352,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5364,34 +5364,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5461,25 +5461,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>1166.959449965771</v>
       </c>
       <c r="C17" t="n">
-        <v>797.9969330253591</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D17" t="n">
         <v>439.7312344186087</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
@@ -5534,28 +5534,28 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2648.227267610355</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2317.164380266784</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2317.164380266784</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X17" t="n">
-        <v>1943.698622005704</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y17" t="n">
         <v>1553.559290029893</v>
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
         <v>309.190302261463</v>
@@ -5610,25 +5610,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5637,7 +5637,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5695,28 +5695,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406185</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T19" t="n">
-        <v>352.6741383092202</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U19" t="n">
-        <v>63.50052796378816</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V19" t="n">
-        <v>63.50052796378816</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.1711973675267</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C20" t="n">
-        <v>412.208680427115</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036446</v>
@@ -5750,13 +5750,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.207670282225</v>
+        <v>2552.263058270411</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.144782938654</v>
+        <v>2221.20017092684</v>
       </c>
       <c r="W20" t="n">
-        <v>1931.37612766854</v>
+        <v>1868.431515656725</v>
       </c>
       <c r="X20" t="n">
-        <v>1557.91036940746</v>
+        <v>1494.965757395646</v>
       </c>
       <c r="Y20" t="n">
-        <v>1167.771037431648</v>
+        <v>1494.965757395646</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614632</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M21" t="n">
         <v>1237.953133915166</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.5052582912015</v>
+        <v>65.7397945496688</v>
       </c>
       <c r="C22" t="n">
-        <v>104.5052582912015</v>
+        <v>65.7397945496688</v>
       </c>
       <c r="D22" t="n">
-        <v>104.5052582912015</v>
+        <v>65.7397945496688</v>
       </c>
       <c r="E22" t="n">
-        <v>104.5052582912015</v>
+        <v>65.7397945496688</v>
       </c>
       <c r="F22" t="n">
-        <v>104.5052582912015</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036446</v>
@@ -5932,28 +5932,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V22" t="n">
-        <v>325.2978374347316</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2978374347316</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X22" t="n">
-        <v>325.2978374347316</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.5052582912015</v>
+        <v>65.7397945496688</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1161.086123514381</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>792.1236065739693</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D23" t="n">
-        <v>792.1236065739693</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1236065739693</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F23" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036446</v>
@@ -5993,7 +5993,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6023,16 +6023,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2664.059709085509</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2311.291053815394</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>1937.825295554314</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1547.685963578503</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.37975290126636</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>98.37975290126636</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>98.37975290126636</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>98.37975290126636</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>98.37975290126636</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036446</v>
@@ -6175,22 +6175,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>500.8207968750362</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W25" t="n">
-        <v>500.8207968750362</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>280.0282177315061</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.94416071721</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036446</v>
@@ -6224,19 +6224,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2241.741912021145</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>1910.679024677574</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>2265.291127898075</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>2096.354944970168</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406185</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406185</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="T28" t="n">
-        <v>352.6741383092202</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="U28" t="n">
-        <v>63.50052796378816</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036446</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>2446.939592728315</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1567.641263708175</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C29" t="n">
-        <v>1567.641263708175</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D29" t="n">
-        <v>1209.375565101424</v>
+        <v>935.255358582308</v>
       </c>
       <c r="E29" t="n">
-        <v>823.5873125031799</v>
+        <v>935.255358582308</v>
       </c>
       <c r="F29" t="n">
-        <v>412.6014077135723</v>
+        <v>524.2694537927005</v>
       </c>
       <c r="G29" t="n">
-        <v>412.6014077135723</v>
+        <v>524.2694537927005</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>197.0747338287033</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,34 +6479,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X29" t="n">
-        <v>2344.380435748108</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y29" t="n">
-        <v>1954.241103772296</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
         <v>309.190302261463</v>
@@ -6555,28 +6555,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326646</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C31" t="n">
-        <v>156.7517573047577</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D31" t="n">
-        <v>156.7517573047577</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E31" t="n">
-        <v>156.7517573047577</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F31" t="n">
-        <v>156.7517573047577</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>261.099450950038</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>103.3510783825681</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6664,7 +6664,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.915471247703</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.952954307291</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D32" t="n">
-        <v>1122.952954307291</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E32" t="n">
-        <v>737.1647017090468</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>326.1787969194392</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
@@ -6716,34 +6716,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.515311311824</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2515.500626187983</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="C34" t="n">
-        <v>2346.564443260076</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="D34" t="n">
-        <v>2346.564443260076</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="E34" t="n">
-        <v>2346.564443260076</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="F34" t="n">
-        <v>2346.564443260076</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="G34" t="n">
-        <v>2180.711461199623</v>
+        <v>2362.69689653384</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>2204.94852396637</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6862,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018223</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018223</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018223</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018223</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018223</v>
+        <v>2482.860667836385</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1364.743608328862</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C35" t="n">
-        <v>995.7810913884507</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D35" t="n">
-        <v>952.5674858910851</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E35" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224076</v>
@@ -6947,40 +6947,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V35" t="n">
-        <v>1717.512263598976</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W35" t="n">
-        <v>1364.743608328862</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X35" t="n">
-        <v>1364.743608328862</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y35" t="n">
-        <v>1364.743608328862</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7059,7 +7059,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064344</v>
+        <v>530.7441767280769</v>
       </c>
       <c r="C37" t="n">
-        <v>667.8624625746712</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D37" t="n">
-        <v>517.7458231623355</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E37" t="n">
-        <v>369.8327295799424</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7114,31 +7114,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>712.3926415583167</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064344</v>
+        <v>712.3926415583167</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1226.657559460833</v>
+        <v>1915.737096240334</v>
       </c>
       <c r="C38" t="n">
-        <v>857.6950425204218</v>
+        <v>1546.774579299922</v>
       </c>
       <c r="D38" t="n">
-        <v>857.6950425204218</v>
+        <v>1188.508880693172</v>
       </c>
       <c r="E38" t="n">
-        <v>471.9067899221776</v>
+        <v>1188.508880693172</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>777.5229759035644</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>359.5591678017513</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
@@ -7190,34 +7190,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V38" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="W38" t="n">
-        <v>1990.262649697725</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="X38" t="n">
-        <v>1616.796891436645</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="Y38" t="n">
-        <v>1226.657559460833</v>
+        <v>2302.336936304456</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7227,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245972</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>513.8405610245972</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U40" t="n">
-        <v>513.8405610245972</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V40" t="n">
-        <v>513.8405610245972</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W40" t="n">
-        <v>513.8405610245972</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X40" t="n">
-        <v>513.8405610245972</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y40" t="n">
-        <v>348.0202652891861</v>
+        <v>2179.742370083245</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>919.5755868835438</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C41" t="n">
-        <v>919.5755868835438</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D41" t="n">
-        <v>857.6950425204218</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7427,34 +7427,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X41" t="n">
-        <v>1309.714918859356</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y41" t="n">
-        <v>919.5755868835438</v>
+        <v>1679.782215419423</v>
       </c>
     </row>
     <row r="42">
@@ -7485,40 +7485,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>279.346854164887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C43" t="n">
-        <v>110.4106712369801</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D43" t="n">
-        <v>110.4106712369801</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E43" t="n">
-        <v>110.4106712369801</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F43" t="n">
-        <v>110.4106712369801</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7609,10 +7609,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X43" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y43" t="n">
-        <v>279.346854164887</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1503.604727733592</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="C44" t="n">
-        <v>1134.642210793181</v>
+        <v>1899.692126347225</v>
       </c>
       <c r="D44" t="n">
-        <v>1134.642210793181</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E44" t="n">
-        <v>748.8539581949365</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F44" t="n">
-        <v>337.8680534053289</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533142</v>
@@ -7658,7 +7658,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7667,31 +7667,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1893.744059709404</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1503.604727733592</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7746,22 +7746,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7831,25 +7831,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236086</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093847</v>
+        <v>392.833774309385</v>
       </c>
       <c r="N3" t="n">
-        <v>381.709495280812</v>
+        <v>193.60925443241</v>
       </c>
       <c r="O3" t="n">
-        <v>192.6017322224374</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868108</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>392.8337743093849</v>
+        <v>260.8744387036303</v>
       </c>
       <c r="N6" t="n">
-        <v>381.7094952808121</v>
+        <v>118.4674613291451</v>
       </c>
       <c r="O6" t="n">
-        <v>205.762078428327</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747125</v>
+        <v>90.64146763747161</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928331</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>274.426499178351</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951785</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451765</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627449</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,22 +22553,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.6883361205952</v>
+        <v>356.9759487570043</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900448</v>
+        <v>143.6340117900443</v>
       </c>
       <c r="G2" t="n">
-        <v>151.9681874521648</v>
+        <v>151.9681874521642</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>75.2852875392112</v>
       </c>
       <c r="I2" t="n">
-        <v>201.8335390244948</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052851991</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.34240107987662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22638,13 +22638,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>70.94242664139617</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -22686,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22723,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839144</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11.81540091395197</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598919</v>
+        <v>30.72511533612105</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>175.4274210366963</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>223.2933741908972</v>
       </c>
       <c r="T4" t="n">
         <v>227.7682732010226</v>
@@ -22781,19 +22781,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.9278609233227</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>102.0308578193407</v>
+        <v>102.0308578193404</v>
       </c>
       <c r="D5" t="n">
-        <v>91.44100766901607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.6340117900446</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.2102214038314</v>
@@ -22805,7 +22805,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852073</v>
+        <v>4.097100052851991</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
@@ -22841,13 +22841,13 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>95.8886749655066</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574584</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268019</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,7 +22863,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22872,16 +22872,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>46.11729306361087</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828962</v>
+        <v>87.6923398882896</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>15.50542903470861</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22954,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>8.114410708933576</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022107</v>
+        <v>84.7925638536266</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839141</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871611</v>
+        <v>17.44799951871606</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,13 +22984,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598916</v>
+        <v>82.68702246598912</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366964</v>
+        <v>175.4274210366963</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908973</v>
+        <v>223.2933741908972</v>
       </c>
       <c r="T7" t="n">
         <v>227.7682732010226</v>
@@ -23027,19 +23027,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>27.53338533279305</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>121.234528896398</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,25 +23066,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23179,7 +23179,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>72.60755131498762</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23197,10 +23197,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,25 +23221,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>51.36731581838976</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>277.4190334016643</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>260.7615551004087</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>14.84727966881354</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
@@ -23461,19 +23461,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>86.34584229143769</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>30.69118209778748</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,22 +23659,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361536</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23786,19 +23786,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>202.7915623345004</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>27.53450764830075</v>
       </c>
     </row>
     <row r="18">
@@ -23935,28 +23935,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>15.42369326373247</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>277.0610276546016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24023,7 +24023,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>170.1021609796515</v>
+        <v>162.2653976627669</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>133.7422034209199</v>
       </c>
       <c r="G22" t="n">
-        <v>117.2531485529222</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24172,19 +24172,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24209,22 +24209,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>189.5306226217318</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,10 +24263,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>294.9937703567477</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>123.317398888958</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24415,22 +24415,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,19 +24443,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>89.79231049789934</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>71.29778323365164</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>75.95753524357771</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24643,22 +24643,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>242.6756726418385</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,10 +24695,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>120.7822473749426</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>10.23088175660581</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.52911452950164</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>86.05160619575661</v>
       </c>
       <c r="J31" t="n">
         <v>45.19995918853699</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,19 +24917,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24965,19 +24965,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>3.115350019202367</v>
+        <v>48.34766866953159</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>311.901572178291</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,10 +25202,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,13 +25214,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>202.7915623345006</v>
       </c>
     </row>
     <row r="36">
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>13.54377073327769</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801578</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>21.3627486427842</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25445,19 +25445,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>345.989995059851</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>24.62049154535651</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25564,10 +25564,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>45.19995918853699</v>
@@ -25597,7 +25597,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25609,13 +25609,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.42256057403782</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>198.9620766287223</v>
       </c>
       <c r="D41" t="n">
-        <v>293.4213027011922</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25640,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,25 +25673,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>111.4067897366015</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>53.90474713821709</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>284.6296653965414</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,25 +26071,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>117.5062691663783</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>500968.5777708114</v>
+        <v>500968.577770812</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>500968.5777708117</v>
+        <v>500968.5777708121</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>804944.2432527805</v>
+        <v>804944.2432527809</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>804944.2432527808</v>
+        <v>804944.243252781</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>804944.2432527809</v>
+        <v>804944.243252781</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>804944.2432527808</v>
+        <v>804944.2432527809</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>804944.2432527808</v>
+        <v>804944.2432527809</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>804944.2432527809</v>
+        <v>804944.2432527808</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>804944.2432527808</v>
+        <v>804944.2432527809</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>804944.2432527808</v>
+        <v>804944.2432527809</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>804944.2432527808</v>
+        <v>804944.2432527809</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>804944.243252781</v>
+        <v>804944.2432527808</v>
       </c>
     </row>
     <row r="15">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156006.1355264978</v>
+        <v>156006.1355264979</v>
       </c>
       <c r="C2" t="n">
-        <v>156006.1355264979</v>
+        <v>156006.135526498</v>
       </c>
       <c r="D2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="F2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="G2" t="n">
         <v>260237.3490141816</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>260237.3490141818</v>
       </c>
-      <c r="I2" t="n">
-        <v>260237.3490141817</v>
-      </c>
       <c r="J2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
         <v>260237.3490141817</v>
@@ -26344,13 +26344,13 @@
         <v>260237.3490141817</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141815</v>
       </c>
       <c r="N2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141815</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141817</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>110394.4548749502</v>
       </c>
       <c r="C3" t="n">
-        <v>2.135171399686442e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>431478.961855829</v>
+        <v>431478.9618558291</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124985</v>
+        <v>68875.69873125</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52307.8813921156</v>
+        <v>50480.80391628889</v>
       </c>
       <c r="C4" t="n">
-        <v>52307.8813921156</v>
+        <v>50480.80391628888</v>
       </c>
       <c r="D4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>55591.68022641084</v>
+        <v>53660.56571087038</v>
       </c>
       <c r="F4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087039</v>
       </c>
       <c r="G4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="H4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="I4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="J4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="K4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="L4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="M4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087036</v>
       </c>
       <c r="N4" t="n">
-        <v>55591.68022641085</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="O4" t="n">
-        <v>55591.68022641085</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="P4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683338</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683338</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340947</v>
@@ -26494,22 +26494,22 @@
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="N5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="N5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="O5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56830.60814740072</v>
+        <v>-55003.53067157452</v>
       </c>
       <c r="C6" t="n">
-        <v>53563.84672754873</v>
+        <v>55390.9242033757</v>
       </c>
       <c r="D6" t="n">
-        <v>-309692.3711314677</v>
+        <v>-307761.2566159273</v>
       </c>
       <c r="E6" t="n">
-        <v>155414.1907243614</v>
+        <v>157345.3052399019</v>
       </c>
       <c r="F6" t="n">
-        <v>155414.1907243613</v>
+        <v>157345.3052399018</v>
       </c>
       <c r="G6" t="n">
-        <v>155414.1907243614</v>
+        <v>157345.3052399017</v>
       </c>
       <c r="H6" t="n">
-        <v>155414.1907243615</v>
+        <v>157345.3052399018</v>
       </c>
       <c r="I6" t="n">
-        <v>155414.1907243614</v>
+        <v>157345.305239902</v>
       </c>
       <c r="J6" t="n">
-        <v>86538.49199311159</v>
+        <v>88469.60650865178</v>
       </c>
       <c r="K6" t="n">
-        <v>155414.1907243614</v>
+        <v>157345.3052399018</v>
       </c>
       <c r="L6" t="n">
-        <v>51382.34019049942</v>
+        <v>53313.45470604001</v>
       </c>
       <c r="M6" t="n">
-        <v>155414.1907243613</v>
+        <v>157345.3052399016</v>
       </c>
       <c r="N6" t="n">
-        <v>155414.1907243613</v>
+        <v>157345.3052399018</v>
       </c>
       <c r="O6" t="n">
-        <v>155414.1907243613</v>
+        <v>157345.3052399017</v>
       </c>
       <c r="P6" t="n">
-        <v>155414.1907243613</v>
+        <v>157345.3052399018</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678986</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678986</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545557</v>
@@ -26814,22 +26814,22 @@
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="N4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678986</v>
       </c>
       <c r="C3" t="n">
-        <v>2.344791028008331e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>354.7302815302969</v>
+        <v>354.730281530297</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>411.0452388028886</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>411.0452388028887</v>
+        <v>411.0452388028885</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>411.0452388028886</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.09251611130367775</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887704</v>
+        <v>0.9474806248887899</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034966</v>
+        <v>3.56672738103504</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760364</v>
+        <v>7.852189301760526</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324496</v>
+        <v>11.76839629324521</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455484</v>
+        <v>14.59973623455514</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895158</v>
+        <v>16.24501962895192</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019315</v>
+        <v>16.50788103019349</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841722</v>
+        <v>15.58792394841755</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060773</v>
+        <v>13.303932450608</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544831</v>
+        <v>9.990699214545037</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679532</v>
+        <v>5.811515176679652</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332515</v>
+        <v>2.108210886332559</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.4049892772318495</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.007401288904294218</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.04950048351498196</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.4780704592104837</v>
       </c>
       <c r="I3" t="n">
-        <v>1.70429296312544</v>
+        <v>1.704292963125476</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246511</v>
+        <v>4.676710155246607</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750233</v>
+        <v>7.993242550750399</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688215</v>
+        <v>10.74790103688238</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430021</v>
+        <v>12.54229356430047</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418796</v>
+        <v>12.87425075418822</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104022</v>
+        <v>11.77742425104047</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522983</v>
+        <v>9.452421277523179</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210549</v>
+        <v>6.31869329921068</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605572</v>
+        <v>3.073372125605635</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523865</v>
+        <v>0.9194497705524055</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.1995216857467912</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.003256610757564604</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.04149954254994892</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.3689686601259097</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047529</v>
+        <v>1.248004425047555</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281328</v>
+        <v>2.934017658281388</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166691</v>
+        <v>4.821492307166792</v>
       </c>
       <c r="L4" t="n">
-        <v>6.16985017147137</v>
+        <v>6.169850171471498</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988675</v>
+        <v>6.50524192898881</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847965</v>
+        <v>6.350561815848097</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150842</v>
+        <v>5.865771705150964</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131898</v>
+        <v>5.019181037132002</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705196</v>
+        <v>3.475020785705268</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473119</v>
+        <v>1.865970340473157</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750037</v>
+        <v>0.7232238460750187</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.1773162272588726</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.002263611411815398</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.09251611130367775</v>
       </c>
       <c r="H5" t="n">
-        <v>0.94748062488878</v>
+        <v>0.9474806248887899</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381035002</v>
+        <v>3.56672738103504</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760444</v>
+        <v>7.852189301760526</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324508</v>
+        <v>11.76839629324521</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455499</v>
+        <v>14.59973623455514</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895192</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019349</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841738</v>
+        <v>15.58792394841755</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060786</v>
+        <v>13.303932450608</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544932</v>
+        <v>9.990699214545037</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679592</v>
+        <v>5.811515176679652</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332559</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.4049892772318495</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.007401288904294218</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498196</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.4780704592104837</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125458</v>
+        <v>1.704292963125476</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246559</v>
+        <v>4.676710155246607</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750314</v>
+        <v>7.993242550750399</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688226</v>
+        <v>10.74790103688238</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430034</v>
+        <v>12.54229356430047</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418822</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104047</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277523079</v>
+        <v>9.452421277523179</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210613</v>
+        <v>6.31869329921068</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605603</v>
+        <v>3.073372125605635</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523959</v>
+        <v>0.9194497705524055</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.1995216857467912</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564604</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.04149954254994892</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.3689686601259097</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047555</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281358</v>
+        <v>2.934017658281388</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166741</v>
+        <v>4.821492307166792</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471433</v>
+        <v>6.169850171471498</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988742</v>
+        <v>6.50524192898881</v>
       </c>
       <c r="N7" t="n">
-        <v>6.35056181584803</v>
+        <v>6.350561815848097</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150903</v>
+        <v>5.865771705150964</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131949</v>
+        <v>5.019181037132002</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705268</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473157</v>
       </c>
       <c r="S7" t="n">
-        <v>0.723223846075011</v>
+        <v>0.7232238460750187</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588726</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.002263611411815398</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194294</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150183</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945117</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455867</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894759</v>
+        <v>166.2898937894762</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>103.8696448668211</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988751</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>243.0338665604674</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>75.14179310326486</v>
       </c>
       <c r="O3" t="n">
-        <v>61.78291202903321</v>
+        <v>263.0434990833256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.9407825031301</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903813</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178751</v>
+        <v>33.75987543178763</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082926</v>
+        <v>46.0891188908294</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507656</v>
+        <v>50.48273419507669</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919052</v>
+        <v>30.45089961919064</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025386</v>
+        <v>2.29774030202549</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194294</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150182</v>
+        <v>196.4945358150183</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945117</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455867</v>
       </c>
       <c r="O5" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894762</v>
       </c>
       <c r="P5" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668211</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988702</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>134.61704058897</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604673</v>
+        <v>243.0338665604674</v>
       </c>
       <c r="M6" t="n">
-        <v>263.2420339516669</v>
+        <v>131.2826983459125</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>74.94325823492288</v>
+        <v>263.0434990833256</v>
       </c>
       <c r="P6" t="n">
-        <v>193.94078250313</v>
+        <v>193.9407825031301</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>76.41420694903826</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178763</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082933</v>
+        <v>46.0891188908294</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507669</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919058</v>
+        <v>30.45089961919064</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025437</v>
+        <v>2.29774030202549</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060971</v>
       </c>
       <c r="N11" t="n">
         <v>478.8956552492237</v>
@@ -35428,7 +35428,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898681</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35501,13 +35501,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>325.1459203262114</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116803</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35732,10 +35732,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35902,7 +35902,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
         <v>478.8956552492237</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,7 +37631,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530448</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
